--- a/xlsx/scheme/схемы_производств.xlsx
+++ b/xlsx/scheme/схемы_производств.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="540" windowWidth="27495" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="630" yWindow="540" windowWidth="20730" windowHeight="11760" activeTab="10"/>
   </bookViews>
   <sheets>
-    <sheet name="шсц-1" sheetId="7" r:id="rId1"/>
-    <sheet name="шсц-2" sheetId="8" r:id="rId2"/>
-    <sheet name="шсц-3" sheetId="1" r:id="rId3"/>
-    <sheet name="шсц-4" sheetId="2" r:id="rId4"/>
-    <sheet name="шсц-5" sheetId="3" r:id="rId5"/>
-    <sheet name="шсц-6" sheetId="4" r:id="rId6"/>
-    <sheet name="шсц-7" sheetId="5" r:id="rId7"/>
-    <sheet name="шсц-10" sheetId="6" r:id="rId8"/>
+    <sheet name="1" sheetId="7" r:id="rId1"/>
+    <sheet name="2" sheetId="8" r:id="rId2"/>
+    <sheet name="3" sheetId="1" r:id="rId3"/>
+    <sheet name="4" sheetId="2" r:id="rId4"/>
+    <sheet name="5" sheetId="3" r:id="rId5"/>
+    <sheet name="6" sheetId="4" r:id="rId6"/>
+    <sheet name="7" sheetId="5" r:id="rId7"/>
+    <sheet name="10" sheetId="6" r:id="rId8"/>
     <sheet name="50" sheetId="9" r:id="rId9"/>
-    <sheet name="56_1" sheetId="10" r:id="rId10"/>
-    <sheet name="56_2" sheetId="11" r:id="rId11"/>
-    <sheet name="атц" sheetId="12" r:id="rId12"/>
+    <sheet name="561" sheetId="10" r:id="rId10"/>
+    <sheet name="562" sheetId="11" r:id="rId11"/>
+    <sheet name="93" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -5034,8 +5034,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -5170,7 +5170,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5205,7 +5204,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -5381,19 +5379,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="19" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5452,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -5511,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5570,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -5629,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5688,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -5747,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5806,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -5865,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -5924,7 +5922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -5983,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
         <v>985</v>
       </c>
@@ -6042,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
         <v>993</v>
       </c>
@@ -6101,7 +6099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -6160,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
         <v>301</v>
       </c>
@@ -6219,7 +6217,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -6278,7 +6276,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
         <v>300</v>
       </c>
@@ -6337,7 +6335,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
         <v>299</v>
       </c>
@@ -6396,7 +6394,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
         <v>1034</v>
       </c>
@@ -6455,7 +6453,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
         <v>1043</v>
       </c>
@@ -6514,7 +6512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -6573,7 +6571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="1" t="s">
         <v>1057</v>
       </c>
@@ -6632,7 +6630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="1" t="s">
         <v>226</v>
       </c>
@@ -6691,7 +6689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
         <v>225</v>
       </c>
@@ -6750,7 +6748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
         <v>243</v>
       </c>
@@ -6809,7 +6807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -6874,21 +6872,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="2.375" bestFit="1" customWidth="1"/>
     <col min="2" max="20" width="6.125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="2.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6953,7 +6951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7018,7 +7016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7083,7 +7081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -7148,7 +7146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -7213,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -7278,7 +7276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -7343,7 +7341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -7408,7 +7406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -7473,7 +7471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -7538,7 +7536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -7603,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -7668,7 +7666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -7733,7 +7731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -7798,7 +7796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -7869,21 +7867,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="2.375" bestFit="1" customWidth="1"/>
     <col min="2" max="12" width="6.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7924,7 +7922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7965,7 +7963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -8006,7 +8004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -8047,7 +8045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -8088,7 +8086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -8129,7 +8127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -8170,7 +8168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -8211,7 +8209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -8258,14 +8256,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.375" bestFit="1" customWidth="1"/>
@@ -8275,7 +8273,7 @@
     <col min="23" max="23" width="2.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8346,7 +8344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -8417,7 +8415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -8488,7 +8486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -8559,7 +8557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -8630,7 +8628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
         <v>1583</v>
       </c>
@@ -8701,7 +8699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
         <v>1589</v>
       </c>
@@ -8772,7 +8770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -8843,7 +8841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23">
       <c r="A9" s="1" t="s">
         <v>1600</v>
       </c>
@@ -8914,7 +8912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23">
       <c r="A10" s="1" t="s">
         <v>1604</v>
       </c>
@@ -8985,7 +8983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23">
       <c r="A11" s="1" t="s">
         <v>1017</v>
       </c>
@@ -9056,7 +9054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
         <v>1611</v>
       </c>
@@ -9127,7 +9125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23">
       <c r="A13" s="1" t="s">
         <v>1615</v>
       </c>
@@ -9198,7 +9196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23">
       <c r="A14" s="1" t="s">
         <v>1620</v>
       </c>
@@ -9269,7 +9267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23">
       <c r="A15" s="1" t="s">
         <v>1623</v>
       </c>
@@ -9340,7 +9338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
         <v>1626</v>
       </c>
@@ -9411,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -9482,7 +9480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23">
       <c r="A18" s="1" t="s">
         <v>1258</v>
       </c>
@@ -9553,7 +9551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -9624,7 +9622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -9695,7 +9693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -9766,7 +9764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23">
       <c r="A22" s="1" t="s">
         <v>1648</v>
       </c>
@@ -9837,7 +9835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -9908,7 +9906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23">
       <c r="A24" s="1" t="s">
         <v>1654</v>
       </c>
@@ -9979,7 +9977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23">
       <c r="A25" s="1" t="s">
         <v>1286</v>
       </c>
@@ -10050,7 +10048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23">
       <c r="A26" s="1" t="s">
         <v>1061</v>
       </c>
@@ -10121,7 +10119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23">
       <c r="A27" s="1" t="s">
         <v>1067</v>
       </c>
@@ -10192,7 +10190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -10263,7 +10261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -10334,7 +10332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -10411,19 +10409,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="18" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10479,7 +10477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -10535,7 +10533,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -10591,7 +10589,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -10647,7 +10645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -10703,7 +10701,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -10759,7 +10757,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -10815,7 +10813,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -10871,7 +10869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -10927,7 +10925,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -10983,7 +10981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -11039,7 +11037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -11095,7 +11093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -11151,7 +11149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -11207,7 +11205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>1158</v>
       </c>
@@ -11263,7 +11261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
         <v>1164</v>
       </c>
@@ -11319,7 +11317,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
         <v>1173</v>
       </c>
@@ -11375,7 +11373,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -11431,7 +11429,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
         <v>260</v>
       </c>
@@ -11487,7 +11485,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -11543,7 +11541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -11599,7 +11597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -11655,7 +11653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -11711,7 +11709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -11767,7 +11765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -11829,17 +11827,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="10" width="6.125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.125" style="3" customWidth="1"/>
@@ -11849,7 +11847,7 @@
     <col min="31" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11941,7 +11939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30">
       <c r="A2" s="4" t="s">
         <v>299</v>
       </c>
@@ -12023,7 +12021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30">
       <c r="A3" s="4" t="s">
         <v>300</v>
       </c>
@@ -12115,7 +12113,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30">
       <c r="A4" s="4" t="s">
         <v>301</v>
       </c>
@@ -12207,7 +12205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30">
       <c r="A5" s="4" t="s">
         <v>302</v>
       </c>
@@ -12299,7 +12297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -12391,7 +12389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -12481,7 +12479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -12571,7 +12569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -12661,7 +12659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -12753,7 +12751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -12845,7 +12843,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30">
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
@@ -12937,7 +12935,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30">
       <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
@@ -13025,7 +13023,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30">
       <c r="A14" s="4" t="s">
         <v>117</v>
       </c>
@@ -13111,7 +13109,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30">
       <c r="A15" s="4" t="s">
         <v>132</v>
       </c>
@@ -13199,7 +13197,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
@@ -13289,7 +13287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
@@ -13379,7 +13377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30">
       <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
@@ -13469,7 +13467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30">
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
@@ -13561,7 +13559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -13653,7 +13651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30">
       <c r="A21" s="4" t="s">
         <v>225</v>
       </c>
@@ -13745,7 +13743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30">
       <c r="A22" s="4" t="s">
         <v>243</v>
       </c>
@@ -13837,7 +13835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30">
       <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
@@ -13929,7 +13927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
@@ -14019,7 +14017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30">
       <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
@@ -14105,7 +14103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30">
       <c r="A26" s="4" t="s">
         <v>4</v>
       </c>
@@ -14197,7 +14195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30">
       <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
@@ -14289,7 +14287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30">
       <c r="A28" s="4" t="s">
         <v>0</v>
       </c>
@@ -14388,14 +14386,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="5" width="6.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.375" bestFit="1" customWidth="1"/>
@@ -14404,7 +14402,7 @@
     <col min="16" max="18" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14460,7 +14458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>311</v>
       </c>
@@ -14516,7 +14514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>320</v>
       </c>
@@ -14572,7 +14570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>330</v>
       </c>
@@ -14628,7 +14626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>339</v>
       </c>
@@ -14684,7 +14682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>348</v>
       </c>
@@ -14740,7 +14738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>357</v>
       </c>
@@ -14796,7 +14794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>367</v>
       </c>
@@ -14852,7 +14850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>378</v>
       </c>
@@ -14908,7 +14906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>388</v>
       </c>
@@ -14964,7 +14962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>398</v>
       </c>
@@ -15020,7 +15018,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>406</v>
       </c>
@@ -15076,7 +15074,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>418</v>
       </c>
@@ -15132,7 +15130,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>430</v>
       </c>
@@ -15188,7 +15186,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -15244,7 +15242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -15300,7 +15298,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -15356,7 +15354,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -15412,7 +15410,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -15474,19 +15472,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="12" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15524,7 +15522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -15562,7 +15560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -15600,7 +15598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -15638,7 +15636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -15676,7 +15674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -15714,7 +15712,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>470</v>
       </c>
@@ -15752,7 +15750,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>478</v>
       </c>
@@ -15790,7 +15788,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>486</v>
       </c>
@@ -15828,7 +15826,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>498</v>
       </c>
@@ -15866,7 +15864,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -15904,7 +15902,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -15942,7 +15940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>515</v>
       </c>
@@ -15980,7 +15978,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>525</v>
       </c>
@@ -16018,7 +16016,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>535</v>
       </c>
@@ -16056,7 +16054,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>545</v>
       </c>
@@ -16094,7 +16092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>556</v>
       </c>
@@ -16132,7 +16130,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>568</v>
       </c>
@@ -16170,7 +16168,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>578</v>
       </c>
@@ -16208,7 +16206,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -16246,7 +16244,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -16284,7 +16282,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -16328,19 +16326,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="16" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16390,7 +16388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -16440,7 +16438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -16490,7 +16488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -16540,7 +16538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -16590,7 +16588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -16640,7 +16638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -16690,7 +16688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>645</v>
       </c>
@@ -16740,7 +16738,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>655</v>
       </c>
@@ -16790,7 +16788,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -16840,7 +16838,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -16890,7 +16888,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>690</v>
       </c>
@@ -16940,7 +16938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>699</v>
       </c>
@@ -16990,7 +16988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>706</v>
       </c>
@@ -17040,7 +17038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>712</v>
       </c>
@@ -17090,7 +17088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>718</v>
       </c>
@@ -17140,7 +17138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>724</v>
       </c>
@@ -17190,7 +17188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
         <v>730</v>
       </c>
@@ -17240,7 +17238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
         <v>737</v>
       </c>
@@ -17290,7 +17288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
         <v>310</v>
       </c>
@@ -17340,7 +17338,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -17390,7 +17388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -17440,7 +17438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -17490,7 +17488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -17546,21 +17544,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="8" width="6.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.375" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17607,7 +17605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -17654,7 +17652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -17701,7 +17699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -17748,7 +17746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -17795,7 +17793,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -17842,7 +17840,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -17889,7 +17887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -17936,7 +17934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -17983,7 +17981,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -18030,7 +18028,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -18077,7 +18075,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -18124,7 +18122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>851</v>
       </c>
@@ -18171,7 +18169,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>861</v>
       </c>
@@ -18218,7 +18216,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>867</v>
       </c>
@@ -18265,7 +18263,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>870</v>
       </c>
@@ -18312,7 +18310,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -18359,7 +18357,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -18406,7 +18404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -18459,19 +18457,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="6" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>889</v>
       </c>
@@ -18491,7 +18489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>891</v>
       </c>
@@ -18511,7 +18509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -18531,7 +18529,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -18551,7 +18549,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>900</v>
       </c>
@@ -18571,7 +18569,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>906</v>
       </c>
@@ -18591,7 +18589,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>909</v>
       </c>
@@ -18611,7 +18609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>913</v>
       </c>
@@ -18631,7 +18629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>917</v>
       </c>
@@ -18651,7 +18649,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>922</v>
       </c>
@@ -18671,7 +18669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -18691,7 +18689,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>929</v>
       </c>
@@ -18711,7 +18709,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>934</v>
       </c>
@@ -18731,7 +18729,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -18751,7 +18749,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -18777,20 +18775,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="2.375" bestFit="1" customWidth="1"/>
     <col min="2" max="13" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18831,7 +18829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -18872,7 +18870,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -18913,7 +18911,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -18954,7 +18952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -18995,7 +18993,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -19036,7 +19034,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -19077,7 +19075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -19118,7 +19116,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -19159,7 +19157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -19200,7 +19198,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -19241,7 +19239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -19282,7 +19280,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -19323,7 +19321,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -19364,7 +19362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -19405,7 +19403,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -19446,7 +19444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -19487,7 +19485,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -19528,7 +19526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -19569,7 +19567,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -19610,7 +19608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -19651,7 +19649,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -19692,7 +19690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -19733,7 +19731,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -19774,7 +19772,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -19815,7 +19813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -19856,7 +19854,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -19897,7 +19895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -19938,7 +19936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -19979,7 +19977,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -20020,7 +20018,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -20061,7 +20059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -20102,7 +20100,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -20143,7 +20141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -20184,7 +20182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -20225,7 +20223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -20266,7 +20264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -20307,7 +20305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -20348,7 +20346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -20389,7 +20387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -20430,7 +20428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -20471,7 +20469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -20512,7 +20510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -20553,7 +20551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -20594,7 +20592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -20635,7 +20633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -20676,7 +20674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -20717,7 +20715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -20758,7 +20756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -20799,7 +20797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -20840,7 +20838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -20881,7 +20879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -20922,7 +20920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -20963,7 +20961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -21004,7 +21002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -21045,7 +21043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>

--- a/xlsx/scheme/схемы_производств.xlsx
+++ b/xlsx/scheme/схемы_производств.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="540" windowWidth="20730" windowHeight="11760" activeTab="10"/>
+    <workbookView xWindow="630" yWindow="540" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="7" r:id="rId1"/>
-    <sheet name="2" sheetId="8" r:id="rId2"/>
+    <sheet name="1" sheetId="8" r:id="rId1"/>
+    <sheet name="2" sheetId="7" r:id="rId2"/>
     <sheet name="3" sheetId="1" r:id="rId3"/>
     <sheet name="4" sheetId="2" r:id="rId4"/>
     <sheet name="5" sheetId="3" r:id="rId5"/>
@@ -5034,8 +5034,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -5170,6 +5170,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5204,6 +5205,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -5379,19 +5381,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="19" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="18" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5446,11 +5448,8 @@
       <c r="R1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -5473,19 +5472,19 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>4</v>
+        <v>1077</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>4</v>
+        <v>1078</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>4</v>
+        <v>1079</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>4</v>
+        <v>1080</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>4</v>
@@ -5494,22 +5493,19 @@
         <v>4</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>4</v>
+        <v>1081</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>4</v>
+        <v>1082</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5517,16 +5513,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>940</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>941</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>942</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>943</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>4</v>
@@ -5535,40 +5531,37 @@
         <v>4</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>1084</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>944</v>
+        <v>1085</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>945</v>
+        <v>1086</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>946</v>
+        <v>4</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>947</v>
+        <v>4</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>948</v>
+        <v>4</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>949</v>
+        <v>1087</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>950</v>
+        <v>1088</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -5591,16 +5584,16 @@
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>4</v>
+        <v>1090</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>4</v>
+        <v>1091</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>4</v>
+        <v>1092</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>4</v>
+        <v>1093</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>4</v>
@@ -5618,16 +5611,13 @@
         <v>4</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5635,58 +5625,55 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>951</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>952</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>953</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>4</v>
+        <v>1094</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>4</v>
+        <v>1095</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>954</v>
+        <v>1096</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>955</v>
+        <v>1097</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>956</v>
+        <v>1098</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>957</v>
+        <v>4</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>958</v>
+        <v>4</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>959</v>
+        <v>4</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -5694,34 +5681,34 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>960</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>961</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>962</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>4</v>
+        <v>1100</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>4</v>
+        <v>1101</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>4</v>
+        <v>1102</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>963</v>
+        <v>1103</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>4</v>
@@ -5730,22 +5717,19 @@
         <v>4</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>4</v>
+        <v>1104</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>4</v>
+        <v>1105</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5753,58 +5737,55 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>964</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>965</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>966</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>967</v>
+        <v>1107</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>4</v>
+        <v>1108</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>4</v>
+        <v>1109</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>968</v>
+        <v>4</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>4</v>
+        <v>1110</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>969</v>
+        <v>4</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>970</v>
+        <v>4</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>971</v>
+        <v>1111</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>4</v>
+        <v>1112</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -5821,49 +5802,46 @@
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>972</v>
+        <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>4</v>
+        <v>1114</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>4</v>
+        <v>1115</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>4</v>
+        <v>1116</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>973</v>
+        <v>1117</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>974</v>
+        <v>1118</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>975</v>
+        <v>1119</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>976</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>4</v>
+        <v>1120</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -5871,7 +5849,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>977</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -5880,7 +5858,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>978</v>
+        <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>4</v>
@@ -5895,34 +5873,31 @@
         <v>4</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>979</v>
+        <v>1121</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>980</v>
+        <v>4</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>306</v>
+        <v>4</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>981</v>
+        <v>4</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>4</v>
+        <v>1122</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>4</v>
+        <v>1123</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -5954,39 +5929,36 @@
         <v>4</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>4</v>
+        <v>1121</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>4</v>
+        <v>1125</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>982</v>
+        <v>1126</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>983</v>
+        <v>1127</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>984</v>
+        <v>1128</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>985</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>986</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -5995,184 +5967,175 @@
         <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>987</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>988</v>
+        <v>4</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>79</v>
+        <v>1129</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>65</v>
+        <v>1130</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>52</v>
+        <v>1131</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>53</v>
+        <v>1132</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>307</v>
+        <v>1133</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>989</v>
+        <v>1134</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>990</v>
+        <v>1135</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>991</v>
+        <v>4</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>993</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>994</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>995</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>996</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>997</v>
+        <v>4</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>88</v>
+        <v>1136</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>308</v>
+        <v>1137</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>998</v>
+        <v>1138</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>41</v>
+        <v>1139</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>999</v>
+        <v>1140</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>4</v>
+        <v>1141</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>4</v>
+        <v>1142</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>43</v>
+        <v>1143</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>26</v>
+        <v>1144</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>0</v>
+        <v>1145</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>0</v>
+        <v>1146</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>0</v>
+        <v>1147</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>0</v>
+        <v>1148</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>0</v>
+        <v>1149</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>301</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>302</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1001</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1002</v>
+        <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>4</v>
@@ -6184,60 +6147,57 @@
         <v>4</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>4</v>
+        <v>1151</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>1003</v>
+        <v>1152</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>1004</v>
+        <v>1153</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>1005</v>
+        <v>1154</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>4</v>
+        <v>1155</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>4</v>
+        <v>1156</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>1006</v>
+        <v>1157</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>1158</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>4</v>
+        <v>1159</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>4</v>
+        <v>1160</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1009</v>
+        <v>1161</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>4</v>
+        <v>289</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>4</v>
@@ -6252,7 +6212,7 @@
         <v>4</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>4</v>
+        <v>1162</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>4</v>
@@ -6267,36 +6227,33 @@
         <v>4</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>4</v>
+        <v>1163</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>300</v>
+        <v>1164</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>305</v>
+        <v>1165</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1011</v>
+        <v>1166</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1012</v>
+        <v>1167</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1013</v>
+        <v>196</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1014</v>
+        <v>288</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>1015</v>
+        <v>271</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>4</v>
@@ -6311,101 +6268,95 @@
         <v>4</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>1016</v>
+        <v>1168</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>1017</v>
+        <v>1169</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>175</v>
+        <v>4</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>1018</v>
+        <v>1170</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>1019</v>
+        <v>4</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>1020</v>
+        <v>1171</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>299</v>
+        <v>1173</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>304</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1023</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1012</v>
+        <v>4</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1024</v>
+        <v>231</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1025</v>
+        <v>4</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1026</v>
+        <v>4</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>4</v>
+        <v>1174</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>1027</v>
+        <v>4</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>147</v>
+        <v>4</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>1028</v>
+        <v>4</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>1029</v>
+        <v>4</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>1030</v>
+        <v>4</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>1031</v>
+        <v>1175</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>1034</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>303</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1035</v>
+        <v>1177</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1036</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>4</v>
@@ -6426,213 +6377,201 @@
         <v>4</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1037</v>
+        <v>4</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>209</v>
+        <v>4</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>228</v>
+        <v>4</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>1038</v>
+        <v>90</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>1039</v>
+        <v>1178</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>290</v>
+        <v>4</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>1040</v>
+        <v>4</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>1043</v>
+        <v>260</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1044</v>
+        <v>1179</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>1180</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>1045</v>
+        <v>4</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>1046</v>
+        <v>1181</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>227</v>
+        <v>4</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>1047</v>
+        <v>68</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>1048</v>
+        <v>1182</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>1049</v>
+        <v>1183</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>4</v>
+        <v>273</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>4</v>
+        <v>274</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>4</v>
+        <v>275</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>1051</v>
+        <v>4</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1052</v>
+        <v>4</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>1039</v>
+        <v>181</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>1053</v>
+        <v>4</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>1054</v>
+        <v>4</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>1055</v>
+        <v>4</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>1057</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1058</v>
+        <v>1184</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1059</v>
+        <v>1185</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1060</v>
+        <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>4</v>
+        <v>262</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>1061</v>
+        <v>198</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>1062</v>
+        <v>276</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>1063</v>
+        <v>4</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>226</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>4</v>
@@ -6644,10 +6583,10 @@
         <v>4</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1065</v>
+        <v>4</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1066</v>
+        <v>4</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>4</v>
@@ -6659,13 +6598,13 @@
         <v>4</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>1067</v>
+        <v>4</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>1068</v>
+        <v>4</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>4</v>
@@ -6685,22 +6624,19 @@
       <c r="R22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>225</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1069</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1070</v>
+        <v>1186</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1071</v>
+        <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>4</v>
@@ -6709,34 +6645,34 @@
         <v>4</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>4</v>
+        <v>292</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>4</v>
+        <v>293</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>1072</v>
+        <v>294</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>1073</v>
+        <v>4</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>4</v>
@@ -6744,22 +6680,19 @@
       <c r="R23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>243</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1074</v>
+        <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1075</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1076</v>
+        <v>4</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>4</v>
@@ -6803,11 +6736,8 @@
       <c r="R24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S24" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -6862,31 +6792,29 @@
       <c r="R25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S25" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.375" bestFit="1" customWidth="1"/>
     <col min="2" max="20" width="6.125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="2.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6951,7 +6879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7016,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7081,7 +7009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -7146,7 +7074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -7211,7 +7139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -7276,7 +7204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -7341,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -7406,7 +7334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -7471,7 +7399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -7536,7 +7464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -7601,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -7666,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -7731,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -7796,7 +7724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -7867,21 +7795,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.375" bestFit="1" customWidth="1"/>
     <col min="2" max="12" width="6.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7922,7 +7850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7963,7 +7891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -8004,7 +7932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -8045,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -8086,7 +8014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -8127,7 +8055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -8168,7 +8096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -8209,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -8256,14 +8184,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.375" bestFit="1" customWidth="1"/>
@@ -8273,7 +8201,7 @@
     <col min="23" max="23" width="2.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8344,7 +8272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -8415,7 +8343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -8486,7 +8414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -8557,7 +8485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -8628,7 +8556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1583</v>
       </c>
@@ -8699,7 +8627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1589</v>
       </c>
@@ -8770,7 +8698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -8841,7 +8769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1600</v>
       </c>
@@ -8912,7 +8840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1604</v>
       </c>
@@ -8983,7 +8911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1017</v>
       </c>
@@ -9054,7 +8982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1611</v>
       </c>
@@ -9125,7 +9053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>1615</v>
       </c>
@@ -9196,7 +9124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1620</v>
       </c>
@@ -9267,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1623</v>
       </c>
@@ -9338,7 +9266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>1626</v>
       </c>
@@ -9409,7 +9337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -9480,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1258</v>
       </c>
@@ -9551,7 +9479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -9622,7 +9550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -9693,7 +9621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -9764,7 +9692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1648</v>
       </c>
@@ -9835,7 +9763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -9906,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1654</v>
       </c>
@@ -9977,7 +9905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>1286</v>
       </c>
@@ -10048,7 +9976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>1061</v>
       </c>
@@ -10119,7 +10047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>1067</v>
       </c>
@@ -10190,7 +10118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -10261,7 +10189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -10332,7 +10260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -10409,19 +10337,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="19" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10476,8 +10404,11 @@
       <c r="R1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -10500,19 +10431,19 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1077</v>
+        <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1078</v>
+        <v>4</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>1079</v>
+        <v>4</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>1080</v>
+        <v>4</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>4</v>
@@ -10521,19 +10452,22 @@
         <v>4</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1081</v>
+        <v>4</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>1082</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -10541,16 +10475,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>940</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>941</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>942</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>943</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>4</v>
@@ -10559,37 +10493,40 @@
         <v>4</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1084</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1085</v>
+        <v>944</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1086</v>
+        <v>945</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>4</v>
+        <v>946</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>4</v>
+        <v>947</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>4</v>
+        <v>948</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>1087</v>
+        <v>949</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>1088</v>
+        <v>950</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>4</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -10612,16 +10549,16 @@
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>1090</v>
+        <v>4</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1091</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>1092</v>
+        <v>4</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1093</v>
+        <v>4</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>4</v>
@@ -10639,13 +10576,16 @@
         <v>4</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -10653,55 +10593,58 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>951</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>952</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>4</v>
+        <v>953</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1094</v>
+        <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1095</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>1096</v>
+        <v>954</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>1097</v>
+        <v>955</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>1098</v>
+        <v>956</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>4</v>
+        <v>957</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>4</v>
+        <v>958</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>4</v>
+        <v>959</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>4</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -10709,34 +10652,34 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>960</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>4</v>
+        <v>961</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>4</v>
+        <v>962</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>1100</v>
+        <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1101</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>1102</v>
+        <v>4</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>1103</v>
+        <v>963</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>4</v>
@@ -10745,19 +10688,22 @@
         <v>4</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>1104</v>
+        <v>4</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>1105</v>
+        <v>4</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>4</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -10765,55 +10711,58 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>964</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>4</v>
+        <v>965</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>4</v>
+        <v>966</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>1107</v>
+        <v>967</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1108</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>1109</v>
+        <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>4</v>
+        <v>968</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>1110</v>
+        <v>4</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>4</v>
+        <v>969</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>4</v>
+        <v>970</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>1111</v>
+        <v>971</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>1112</v>
+        <v>4</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>4</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -10830,46 +10779,49 @@
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>4</v>
+        <v>972</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>1114</v>
+        <v>4</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1115</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>1116</v>
+        <v>4</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>1117</v>
+        <v>973</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>1118</v>
+        <v>974</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>1119</v>
+        <v>975</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>4</v>
+        <v>976</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>1120</v>
+        <v>4</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -10877,7 +10829,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>977</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -10886,7 +10838,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>4</v>
+        <v>978</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>4</v>
@@ -10901,31 +10853,34 @@
         <v>4</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>1121</v>
+        <v>979</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>4</v>
+        <v>980</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>4</v>
+        <v>306</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>4</v>
+        <v>981</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>1122</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>1123</v>
+        <v>4</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>4</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -10957,36 +10912,39 @@
         <v>4</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>1121</v>
+        <v>4</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>1125</v>
+        <v>4</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>1126</v>
+        <v>982</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>1127</v>
+        <v>983</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>1128</v>
+        <v>984</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>27</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>985</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>986</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -10995,175 +10953,184 @@
         <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>4</v>
+        <v>987</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>4</v>
+        <v>988</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>1129</v>
+        <v>79</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>1130</v>
+        <v>65</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>1131</v>
+        <v>52</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>1132</v>
+        <v>53</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>1133</v>
+        <v>307</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>1134</v>
+        <v>989</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>1135</v>
+        <v>990</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>4</v>
+        <v>991</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>992</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>993</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>994</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
+        <v>995</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>4</v>
+        <v>996</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>4</v>
+        <v>997</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>1136</v>
+        <v>88</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>1137</v>
+        <v>308</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>1138</v>
+        <v>998</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>1139</v>
+        <v>41</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>1140</v>
+        <v>999</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>1141</v>
+        <v>4</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>1142</v>
+        <v>4</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>1143</v>
+        <v>43</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>1144</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>44</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1145</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1146</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>1147</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>1148</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>1149</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>1150</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>301</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>302</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>4</v>
+        <v>1001</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>4</v>
+        <v>1002</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>4</v>
@@ -11175,57 +11142,60 @@
         <v>4</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>1151</v>
+        <v>4</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>1152</v>
+        <v>1003</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>1153</v>
+        <v>1004</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>1154</v>
+        <v>1005</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>1155</v>
+        <v>4</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>1156</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>1157</v>
+        <v>1006</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1007</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>1158</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1159</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1160</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1161</v>
+        <v>1009</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>272</v>
+        <v>4</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>289</v>
+        <v>4</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>4</v>
@@ -11240,7 +11210,7 @@
         <v>4</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>1162</v>
+        <v>4</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>4</v>
@@ -11255,33 +11225,36 @@
         <v>4</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>1163</v>
+        <v>4</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>1164</v>
+        <v>300</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1165</v>
+        <v>305</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1166</v>
+        <v>1011</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1167</v>
+        <v>1012</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>196</v>
+        <v>1013</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>288</v>
+        <v>1014</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>271</v>
+        <v>1015</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>4</v>
@@ -11296,95 +11269,101 @@
         <v>4</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>1168</v>
+        <v>1016</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>1169</v>
+        <v>1017</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>4</v>
+        <v>175</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>1170</v>
+        <v>1018</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>4</v>
+        <v>1019</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>1171</v>
+        <v>1020</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1021</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>1173</v>
+        <v>299</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>4</v>
+        <v>304</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>4</v>
+        <v>1023</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>4</v>
+        <v>1012</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>231</v>
+        <v>1024</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>4</v>
+        <v>1025</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>4</v>
+        <v>1026</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>151</v>
+        <v>4</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>179</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>1174</v>
+        <v>4</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>4</v>
+        <v>1027</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>4</v>
+        <v>1028</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>4</v>
+        <v>1029</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>4</v>
+        <v>1030</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>1175</v>
+        <v>1031</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1032</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>1034</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>303</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1177</v>
+        <v>1035</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>4</v>
+        <v>1036</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>4</v>
@@ -11405,201 +11384,213 @@
         <v>4</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>4</v>
+        <v>1037</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>4</v>
+        <v>209</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>4</v>
+        <v>228</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>90</v>
+        <v>1038</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>1178</v>
+        <v>1039</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>4</v>
+        <v>290</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>4</v>
+        <v>1040</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1041</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>260</v>
+        <v>1043</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1179</v>
+        <v>1044</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1180</v>
+        <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>152</v>
+        <v>4</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>4</v>
+        <v>1045</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>1181</v>
+        <v>1046</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>4</v>
+        <v>227</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>68</v>
+        <v>1047</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>1182</v>
+        <v>1048</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>1183</v>
+        <v>1049</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1050</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>272</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>273</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>177</v>
+        <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>274</v>
+        <v>4</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>275</v>
+        <v>4</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>4</v>
+        <v>1051</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>4</v>
+        <v>1052</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>181</v>
+        <v>1039</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>4</v>
+        <v>1053</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>4</v>
+        <v>1054</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>4</v>
+        <v>1055</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1056</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>1057</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1184</v>
+        <v>1058</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1185</v>
+        <v>1059</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>4</v>
+        <v>1060</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>261</v>
+        <v>4</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>262</v>
+        <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>198</v>
+        <v>1061</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>276</v>
+        <v>1062</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>153</v>
+        <v>4</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>4</v>
+        <v>1063</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>165</v>
+        <v>4</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1064</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>226</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>4</v>
@@ -11611,10 +11602,10 @@
         <v>4</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>4</v>
+        <v>1065</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>4</v>
+        <v>1066</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>4</v>
@@ -11626,13 +11617,13 @@
         <v>4</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>4</v>
+        <v>1067</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>4</v>
+        <v>1068</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>4</v>
@@ -11652,19 +11643,22 @@
       <c r="R22" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>4</v>
+        <v>225</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>4</v>
+        <v>1069</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1186</v>
+        <v>1070</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>4</v>
+        <v>1071</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>4</v>
@@ -11673,34 +11667,34 @@
         <v>4</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>292</v>
+        <v>4</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>293</v>
+        <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>294</v>
+        <v>1072</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>4</v>
+        <v>1073</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>154</v>
+        <v>4</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>4</v>
@@ -11708,19 +11702,22 @@
       <c r="R23" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>4</v>
+        <v>243</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>4</v>
+        <v>1074</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>4</v>
+        <v>1075</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>4</v>
+        <v>1076</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>4</v>
@@ -11764,8 +11761,11 @@
       <c r="R24" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -11820,14 +11820,18 @@
       <c r="R25" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="S25" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11837,7 +11841,7 @@
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="6.125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.125" style="3" customWidth="1"/>
@@ -11847,7 +11851,7 @@
     <col min="31" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11939,7 +11943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>299</v>
       </c>
@@ -12021,7 +12025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>300</v>
       </c>
@@ -12113,7 +12117,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>301</v>
       </c>
@@ -12205,7 +12209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>302</v>
       </c>
@@ -12297,7 +12301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -12389,7 +12393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -12479,7 +12483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -12569,7 +12573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -12659,7 +12663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -12751,7 +12755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -12843,7 +12847,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
@@ -12935,7 +12939,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
@@ -13023,7 +13027,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>117</v>
       </c>
@@ -13109,7 +13113,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>132</v>
       </c>
@@ -13197,7 +13201,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
@@ -13287,7 +13291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
@@ -13377,7 +13381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
@@ -13467,7 +13471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
@@ -13559,7 +13563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -13651,7 +13655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>225</v>
       </c>
@@ -13743,7 +13747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>243</v>
       </c>
@@ -13835,7 +13839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
@@ -13927,7 +13931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
@@ -14017,7 +14021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
@@ -14103,7 +14107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>4</v>
       </c>
@@ -14195,7 +14199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
@@ -14287,7 +14291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>0</v>
       </c>
@@ -14386,14 +14390,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="6.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.375" bestFit="1" customWidth="1"/>
@@ -14402,7 +14406,7 @@
     <col min="16" max="18" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14458,7 +14462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>311</v>
       </c>
@@ -14514,7 +14518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>320</v>
       </c>
@@ -14570,7 +14574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>330</v>
       </c>
@@ -14626,7 +14630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>339</v>
       </c>
@@ -14682,7 +14686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>348</v>
       </c>
@@ -14738,7 +14742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>357</v>
       </c>
@@ -14794,7 +14798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>367</v>
       </c>
@@ -14850,7 +14854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>378</v>
       </c>
@@ -14906,7 +14910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>388</v>
       </c>
@@ -14962,7 +14966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>398</v>
       </c>
@@ -15018,7 +15022,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>406</v>
       </c>
@@ -15074,7 +15078,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>418</v>
       </c>
@@ -15130,7 +15134,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>430</v>
       </c>
@@ -15186,7 +15190,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -15242,7 +15246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -15298,7 +15302,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -15354,7 +15358,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -15410,7 +15414,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -15472,19 +15476,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="12" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15522,7 +15526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -15560,7 +15564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -15598,7 +15602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -15636,7 +15640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -15674,7 +15678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -15712,7 +15716,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>470</v>
       </c>
@@ -15750,7 +15754,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>478</v>
       </c>
@@ -15788,7 +15792,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>486</v>
       </c>
@@ -15826,7 +15830,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>498</v>
       </c>
@@ -15864,7 +15868,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -15902,7 +15906,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -15940,7 +15944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>515</v>
       </c>
@@ -15978,7 +15982,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>525</v>
       </c>
@@ -16016,7 +16020,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>535</v>
       </c>
@@ -16054,7 +16058,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>545</v>
       </c>
@@ -16092,7 +16096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>556</v>
       </c>
@@ -16130,7 +16134,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>568</v>
       </c>
@@ -16168,7 +16172,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>578</v>
       </c>
@@ -16206,7 +16210,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -16244,7 +16248,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -16282,7 +16286,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -16326,19 +16330,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16388,7 +16392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -16438,7 +16442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -16488,7 +16492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -16538,7 +16542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -16588,7 +16592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -16638,7 +16642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -16688,7 +16692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>645</v>
       </c>
@@ -16738,7 +16742,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>655</v>
       </c>
@@ -16788,7 +16792,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -16838,7 +16842,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -16888,7 +16892,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>690</v>
       </c>
@@ -16938,7 +16942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>699</v>
       </c>
@@ -16988,7 +16992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>706</v>
       </c>
@@ -17038,7 +17042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>712</v>
       </c>
@@ -17088,7 +17092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>718</v>
       </c>
@@ -17138,7 +17142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>724</v>
       </c>
@@ -17188,7 +17192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>730</v>
       </c>
@@ -17238,7 +17242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>737</v>
       </c>
@@ -17288,7 +17292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>310</v>
       </c>
@@ -17338,7 +17342,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -17388,7 +17392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -17438,7 +17442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -17488,7 +17492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -17544,21 +17548,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="6.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.375" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17605,7 +17609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -17652,7 +17656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -17699,7 +17703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -17746,7 +17750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -17793,7 +17797,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -17840,7 +17844,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -17887,7 +17891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -17934,7 +17938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -17981,7 +17985,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -18028,7 +18032,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -18075,7 +18079,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -18122,7 +18126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>851</v>
       </c>
@@ -18169,7 +18173,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>861</v>
       </c>
@@ -18216,7 +18220,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>867</v>
       </c>
@@ -18263,7 +18267,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>870</v>
       </c>
@@ -18310,7 +18314,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -18357,7 +18361,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -18404,7 +18408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -18457,19 +18461,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>889</v>
       </c>
@@ -18489,7 +18493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>891</v>
       </c>
@@ -18509,7 +18513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -18529,7 +18533,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -18549,7 +18553,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>900</v>
       </c>
@@ -18569,7 +18573,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>906</v>
       </c>
@@ -18589,7 +18593,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>909</v>
       </c>
@@ -18609,7 +18613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>913</v>
       </c>
@@ -18629,7 +18633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>917</v>
       </c>
@@ -18649,7 +18653,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>922</v>
       </c>
@@ -18669,7 +18673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -18689,7 +18693,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>929</v>
       </c>
@@ -18709,7 +18713,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>934</v>
       </c>
@@ -18729,7 +18733,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -18749,7 +18753,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -18775,20 +18779,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.375" bestFit="1" customWidth="1"/>
     <col min="2" max="13" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18829,7 +18833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -18870,7 +18874,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -18911,7 +18915,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -18952,7 +18956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -18993,7 +18997,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -19034,7 +19038,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -19075,7 +19079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -19116,7 +19120,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -19157,7 +19161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -19198,7 +19202,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -19239,7 +19243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -19280,7 +19284,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -19321,7 +19325,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -19362,7 +19366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -19403,7 +19407,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -19444,7 +19448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -19485,7 +19489,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -19526,7 +19530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -19567,7 +19571,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -19608,7 +19612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -19649,7 +19653,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -19690,7 +19694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -19731,7 +19735,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -19772,7 +19776,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -19813,7 +19817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -19854,7 +19858,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -19895,7 +19899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -19936,7 +19940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -19977,7 +19981,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -20018,7 +20022,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -20059,7 +20063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -20100,7 +20104,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -20141,7 +20145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -20182,7 +20186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -20223,7 +20227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -20264,7 +20268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -20305,7 +20309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -20346,7 +20350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -20387,7 +20391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -20428,7 +20432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -20469,7 +20473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -20510,7 +20514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -20551,7 +20555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -20592,7 +20596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -20633,7 +20637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -20674,7 +20678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -20715,7 +20719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -20756,7 +20760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -20797,7 +20801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -20838,7 +20842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -20879,7 +20883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -20920,7 +20924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -20961,7 +20965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -21002,7 +21006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -21043,7 +21047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
